--- a/DienDanSV.xlsx
+++ b/DienDanSV.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>1-N</t>
   </si>
@@ -49,6 +49,9 @@
     <t>User</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>isDelete</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>email</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
     <t>Friends-User</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>User-History</t>
-  </si>
-  <si>
-    <t>content</t>
   </si>
   <si>
     <t>password</t>
@@ -878,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,18 +940,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,9 +950,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1865,8 +1856,8 @@
   <sheetPr/>
   <dimension ref="C1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S35" sqref="C1:S35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1916,6 +1907,9 @@
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1925,24 +1919,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="5:18">
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>0</v>
@@ -1950,19 +1944,19 @@
     </row>
     <row r="7" spans="3:18">
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:18">
@@ -1970,7 +1964,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
@@ -1980,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>0</v>
@@ -1991,30 +1988,30 @@
     </row>
     <row r="10" spans="3:18">
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="3:18">
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>2</v>
@@ -2024,10 +2021,10 @@
     </row>
     <row r="12" spans="3:18">
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -2036,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>0</v>
@@ -2044,13 +2041,13 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>0</v>
@@ -2058,15 +2055,15 @@
     </row>
     <row r="14" spans="5:10">
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="17:18">
       <c r="Q15" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>0</v>
@@ -2077,16 +2074,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18">
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18">
       <c r="K17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>0</v>
@@ -2105,18 +2099,21 @@
     </row>
     <row r="19" spans="10:18">
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="7:18">
+        <v>32</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>2</v>
@@ -2131,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>0</v>
@@ -2139,38 +2136,38 @@
     </row>
     <row r="22" spans="7:18">
       <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="5:18">
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>0</v>
@@ -2178,19 +2175,19 @@
     </row>
     <row r="25" spans="5:18">
       <c r="E25" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="5:10">
@@ -2201,26 +2198,26 @@
         <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="5:18">
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="24" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="17:18">
       <c r="Q28" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>0</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="8:18">
@@ -2236,54 +2233,54 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="8:18">
       <c r="H31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R31" s="27" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="8:18">
       <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="17:18">
-      <c r="Q34" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" s="28" t="s">
-        <v>14</v>
+      <c r="Q34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DienDanSV.xlsx
+++ b/DienDanSV.xlsx
@@ -1216,16 +1216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>67310</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1233,13 +1233,13 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="5673725" y="4392295"/>
-          <a:ext cx="613410" cy="741680"/>
+        <a:xfrm flipV="1">
+          <a:off x="6209030" y="4526280"/>
+          <a:ext cx="876300" cy="678180"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50072"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1417,15 +1417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>61595</xdr:colOff>
+      <xdr:colOff>84455</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1433195</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1434,7 +1434,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3778250" y="324485"/>
+          <a:off x="3801110" y="347345"/>
           <a:ext cx="4808855" cy="823595"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1856,8 +1856,8 @@
   <sheetPr/>
   <dimension ref="C1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
